--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854705.007516278</v>
+        <v>1824522.771366151</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156752</v>
+        <v>5996855.681156756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8795226.347368555</v>
+        <v>8795226.347368553</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>10.11197856605508</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>84.11892151122089</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>111.0108628978216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>366.9514856512191</v>
+        <v>92.13472700759353</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>130.7621952949255</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>397.3445394963776</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>84.99661516246428</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>56.99008250053554</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>110.92720347361</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.99760060955778</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>193.5789072793774</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>60.26813164812763</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>192.9291252596485</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.45289880148457</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>53.0651365904254</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>175.5940282806586</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>101.780687729549</v>
+        <v>89.04055620987464</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>271.3694897020893</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>240.1894259762752</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>285.5635981313769</v>
+        <v>10.70611463921582</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>24.95508814777711</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>18.44902381826978</v>
       </c>
       <c r="S23" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>297.6457134438555</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>79.98561037715479</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>20.55076082114499</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>51.23661646528863</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S26" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>165.9503144376334</v>
       </c>
     </row>
     <row r="27">
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.73687785470316</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>207.661801906612</v>
+        <v>115.8896567391114</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>69.64601902163335</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>32.78759264701869</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>124.5932131678836</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>90.93681977071307</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>46.47160927082896</v>
       </c>
       <c r="W32" t="n">
-        <v>309.4756348731893</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>79.9856103771547</v>
       </c>
       <c r="U34" t="n">
-        <v>133.2077127477213</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>251.9738186830795</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>180.8585516514377</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>127.2284271446648</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>33.04579059859589</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>148.7909614024429</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>252.0111841953827</v>
       </c>
       <c r="H38" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>129.8188433654458</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>19.7335563888751</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>59.44820138714368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>87.11299471729394</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>25.88833277086417</v>
       </c>
       <c r="E41" t="n">
-        <v>58.78288963283014</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>114.3709653899178</v>
       </c>
       <c r="X43" t="n">
-        <v>30.67983528954633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.4783758582006</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>318.0487214609057</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>5.903250958489866</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S45" t="n">
         <v>150.8909729053132</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>81.75945942673101</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>53.557622442364</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2557.151793961624</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2557.151793961624</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2557.151793961624</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>2557.151793961624</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>2167.012461985812</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.477155601806</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>2092.477155601806</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>1734.211456995055</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4682,7 +4682,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477206</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653275</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>400.6823320653275</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>231.6825318036599</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>231.6825318036599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1327.013560149308</v>
+        <v>984.6750962183016</v>
       </c>
       <c r="C8" t="n">
-        <v>1327.013560149308</v>
+        <v>615.71257927789</v>
       </c>
       <c r="D8" t="n">
-        <v>968.7478615425571</v>
+        <v>615.71257927789</v>
       </c>
       <c r="E8" t="n">
-        <v>968.7478615425571</v>
+        <v>615.71257927789</v>
       </c>
       <c r="F8" t="n">
-        <v>557.7619567529496</v>
+        <v>608.7670785286865</v>
       </c>
       <c r="G8" t="n">
-        <v>139.7981486511364</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>139.7981486511364</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656313</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.618650386199</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.152892125119</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.013560149308</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4913,22 +4913,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.5384547146241</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146241</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146241</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146241</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1964.838184214438</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C11" t="n">
-        <v>1595.875667274027</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5074,19 +5074,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2686.040403533821</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2354.97751619025</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W11" t="n">
-        <v>2354.97751619025</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X11" t="n">
-        <v>2354.97751619025</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="Y11" t="n">
-        <v>1964.838184214438</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5117,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
         <v>670.8219208598713</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5223,28 +5223,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>138.3857151273827</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>138.3857151273827</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>1280.556556803302</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>911.5940398628907</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>911.5940398628907</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>525.8057872646464</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>114.8198824750388</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.607830218103</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>1897.544942874532</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W14" t="n">
-        <v>1544.776287604418</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X14" t="n">
-        <v>1171.310529343338</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y14" t="n">
-        <v>781.1711973675267</v>
+        <v>1667.156396867424</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5378,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>624.5172177858293</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>624.5172177858293</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T16" t="n">
-        <v>624.5172177858293</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U16" t="n">
-        <v>624.5172177858293</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.553390680693</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C17" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036444</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628376</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284805</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014691</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X17" t="n">
-        <v>1363.553390680693</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y17" t="n">
-        <v>1363.553390680693</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E19" t="n">
         <v>53.94298182036444</v>
@@ -5709,16 +5709,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>625.3202087220412</v>
+        <v>383.5045402329972</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.5276295785111</v>
+        <v>383.5045402329972</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2423.485734520778</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C20" t="n">
-        <v>2054.523217580366</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D20" t="n">
-        <v>1696.257518973616</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E20" t="n">
-        <v>1310.469266375371</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>899.483361585764</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>481.5195534839509</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036444</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W20" t="n">
-        <v>2423.485734520778</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X20" t="n">
-        <v>2423.485734520778</v>
+        <v>1616.796891436645</v>
       </c>
       <c r="Y20" t="n">
-        <v>2423.485734520778</v>
+        <v>1226.657559460833</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2180.711461199622</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C22" t="n">
-        <v>2180.711461199622</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>2180.711461199622</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>2180.711461199622</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W22" t="n">
-        <v>2408.701012097639</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X22" t="n">
-        <v>2180.711461199622</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y22" t="n">
-        <v>2180.711461199622</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1675.530577350406</v>
+        <v>1716.92664462951</v>
       </c>
       <c r="C23" t="n">
-        <v>1306.568060409995</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="D23" t="n">
-        <v>1306.568060409995</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="E23" t="n">
-        <v>920.7798078117503</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="F23" t="n">
-        <v>509.7939030221427</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G23" t="n">
-        <v>92.40945634154292</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H23" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L23" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
         <v>1685.237002375317</v>
@@ -6016,25 +6016,25 @@
         <v>3341.479452221464</v>
       </c>
       <c r="S23" t="n">
-        <v>3178.504162921534</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T23" t="n">
-        <v>3178.504162921534</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="U23" t="n">
-        <v>3178.504162921534</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="V23" t="n">
-        <v>3178.504162921534</v>
+        <v>2794.318052471318</v>
       </c>
       <c r="W23" t="n">
-        <v>2825.73550765142</v>
+        <v>2493.665816669443</v>
       </c>
       <c r="X23" t="n">
-        <v>2452.26974939034</v>
+        <v>2493.665816669443</v>
       </c>
       <c r="Y23" t="n">
-        <v>2062.130417414528</v>
+        <v>2103.526484693632</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K24" t="n">
-        <v>371.5093956067678</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L24" t="n">
-        <v>842.0922403416541</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N24" t="n">
-        <v>1867.898798762124</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.32050845851</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P24" t="n">
         <v>2459.30289775485</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.9958424318234</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="C25" t="n">
-        <v>147.9958424318234</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="D25" t="n">
-        <v>147.9958424318234</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="E25" t="n">
-        <v>147.9958424318234</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F25" t="n">
-        <v>147.9958424318234</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G25" t="n">
-        <v>147.9958424318234</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H25" t="n">
         <v>67.20229659631352</v>
@@ -6174,25 +6174,25 @@
         <v>954.5619983528702</v>
       </c>
       <c r="S25" t="n">
-        <v>954.5619983528702</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="T25" t="n">
-        <v>954.5619983528702</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="U25" t="n">
-        <v>665.4025633668014</v>
+        <v>455.6431675015368</v>
       </c>
       <c r="V25" t="n">
-        <v>665.4025633668014</v>
+        <v>434.8848232377539</v>
       </c>
       <c r="W25" t="n">
-        <v>375.9853933298407</v>
+        <v>434.8848232377539</v>
       </c>
       <c r="X25" t="n">
-        <v>147.9958424318234</v>
+        <v>434.8848232377539</v>
       </c>
       <c r="Y25" t="n">
-        <v>147.9958424318234</v>
+        <v>214.0922440942239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1363.103067601048</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C26" t="n">
-        <v>994.1405506606359</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D26" t="n">
-        <v>635.8748520538854</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E26" t="n">
-        <v>250.0865994556412</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F26" t="n">
-        <v>250.0865994556412</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G26" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H26" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I26" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726752</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908085</v>
@@ -6241,7 +6241,7 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O26" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P26" t="n">
         <v>3146.337816775583</v>
@@ -6250,28 +6250,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R26" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S26" t="n">
-        <v>3197.139540515746</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T26" t="n">
-        <v>3197.139540515746</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="U26" t="n">
-        <v>3197.139540515746</v>
+        <v>2871.665503366677</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.076653172175</v>
+        <v>2871.665503366677</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.307997902061</v>
+        <v>2518.896848096563</v>
       </c>
       <c r="X26" t="n">
-        <v>2139.842239640981</v>
+        <v>2145.431089835483</v>
       </c>
       <c r="Y26" t="n">
-        <v>1749.702907665169</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>475.4705993509098</v>
       </c>
       <c r="L27" t="n">
-        <v>578.9215022353715</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M27" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.597172667076</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.3516142589147</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C28" t="n">
-        <v>380.3516142589147</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D28" t="n">
-        <v>380.3516142589147</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E28" t="n">
-        <v>380.3516142589147</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4557780420428</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G28" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H28" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I28" t="n">
         <v>67.20229659631352</v>
@@ -6408,28 +6408,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R28" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S28" t="n">
-        <v>608.341165156932</v>
+        <v>837.5017390204345</v>
       </c>
       <c r="T28" t="n">
-        <v>608.341165156932</v>
+        <v>611.303954839161</v>
       </c>
       <c r="U28" t="n">
-        <v>608.341165156932</v>
+        <v>611.303954839161</v>
       </c>
       <c r="V28" t="n">
-        <v>608.341165156932</v>
+        <v>356.6194666332741</v>
       </c>
       <c r="W28" t="n">
-        <v>608.341165156932</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="X28" t="n">
-        <v>380.3516142589147</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y28" t="n">
-        <v>380.3516142589147</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1344.467690006835</v>
+        <v>1603.425807796337</v>
       </c>
       <c r="C29" t="n">
-        <v>975.5051730664238</v>
+        <v>1234.463290855925</v>
       </c>
       <c r="D29" t="n">
-        <v>617.2394744596734</v>
+        <v>876.1975922491749</v>
       </c>
       <c r="E29" t="n">
-        <v>231.4512218614291</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="F29" t="n">
-        <v>231.4512218614291</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="G29" t="n">
-        <v>198.3324414098951</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H29" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I29" t="n">
         <v>67.20229659631352</v>
@@ -6487,28 +6487,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221464</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S29" t="n">
-        <v>3178.504162921534</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T29" t="n">
-        <v>3178.504162921534</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="U29" t="n">
-        <v>3178.504162921534</v>
+        <v>3106.399393367465</v>
       </c>
       <c r="V29" t="n">
-        <v>2847.441275577963</v>
+        <v>3106.399393367465</v>
       </c>
       <c r="W29" t="n">
-        <v>2494.672620307849</v>
+        <v>2753.63073809735</v>
       </c>
       <c r="X29" t="n">
-        <v>2121.206862046769</v>
+        <v>2380.164979836271</v>
       </c>
       <c r="Y29" t="n">
-        <v>1731.067530070957</v>
+        <v>1990.025647860459</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1677.737720306102</v>
+        <v>987.7807422736381</v>
       </c>
       <c r="C30" t="n">
-        <v>1503.284691024975</v>
+        <v>813.3277129925111</v>
       </c>
       <c r="D30" t="n">
-        <v>1354.350281363724</v>
+        <v>664.3933033312599</v>
       </c>
       <c r="E30" t="n">
-        <v>1195.112826358268</v>
+        <v>505.1558483258043</v>
       </c>
       <c r="F30" t="n">
-        <v>1048.578268385153</v>
+        <v>358.6212903526892</v>
       </c>
       <c r="G30" t="n">
-        <v>910.9781410201372</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H30" t="n">
-        <v>808.5291681966457</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I30" t="n">
-        <v>757.1592746287772</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J30" t="n">
-        <v>757.1592746287772</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K30" t="n">
-        <v>1061.466373639232</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L30" t="n">
-        <v>1164.917276523693</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M30" t="n">
-        <v>1766.04448201077</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N30" t="n">
-        <v>2242.577635841049</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O30" t="n">
-        <v>2754.999345537436</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P30" t="n">
-        <v>3149.259875787314</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q30" t="n">
-        <v>3360.114829815676</v>
+        <v>2670.157851783212</v>
       </c>
       <c r="R30" t="n">
-        <v>3329.147763655103</v>
+        <v>2639.190785622639</v>
       </c>
       <c r="S30" t="n">
-        <v>3176.732639508321</v>
+        <v>2486.775661475858</v>
       </c>
       <c r="T30" t="n">
-        <v>2979.103551490451</v>
+        <v>2289.146573457987</v>
       </c>
       <c r="U30" t="n">
-        <v>2750.954321256601</v>
+        <v>2060.997343224137</v>
       </c>
       <c r="V30" t="n">
-        <v>2515.802213024858</v>
+        <v>1825.845234992394</v>
       </c>
       <c r="W30" t="n">
-        <v>2261.564856296657</v>
+        <v>1571.607878264193</v>
       </c>
       <c r="X30" t="n">
-        <v>2053.713356091124</v>
+        <v>1363.75637805866</v>
       </c>
       <c r="Y30" t="n">
-        <v>1845.95305732617</v>
+        <v>1155.996079293706</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3086.610991479665</v>
+        <v>539.2930978433</v>
       </c>
       <c r="C31" t="n">
-        <v>2917.674808551758</v>
+        <v>539.2930978433</v>
       </c>
       <c r="D31" t="n">
-        <v>2767.558169139423</v>
+        <v>539.2930978433</v>
       </c>
       <c r="E31" t="n">
-        <v>2619.645075557029</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="F31" t="n">
-        <v>2472.755128059119</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="G31" t="n">
-        <v>2472.755128059119</v>
+        <v>222.6400855875663</v>
       </c>
       <c r="H31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K31" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L31" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M31" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N31" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O31" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T31" t="n">
-        <v>3360.114829815676</v>
+        <v>828.7102678802605</v>
       </c>
       <c r="U31" t="n">
-        <v>3360.114829815676</v>
+        <v>828.7102678802605</v>
       </c>
       <c r="V31" t="n">
-        <v>3360.114829815676</v>
+        <v>828.7102678802605</v>
       </c>
       <c r="W31" t="n">
-        <v>3360.114829815676</v>
+        <v>539.2930978433</v>
       </c>
       <c r="X31" t="n">
-        <v>3268.259456309905</v>
+        <v>539.2930978433</v>
       </c>
       <c r="Y31" t="n">
-        <v>3268.259456309905</v>
+        <v>539.2930978433</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2329.850451020923</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.887934080511</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="D32" t="n">
-        <v>1602.622235473761</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E32" t="n">
-        <v>1216.833982875517</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F32" t="n">
-        <v>805.8480780859089</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G32" t="n">
-        <v>388.4636314053091</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H32" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I32" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908085</v>
@@ -6715,7 +6715,7 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P32" t="n">
         <v>3146.337816775583</v>
@@ -6724,28 +6724,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R32" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S32" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T32" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514958</v>
       </c>
       <c r="U32" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514958</v>
       </c>
       <c r="V32" t="n">
-        <v>3029.051942472105</v>
+        <v>2915.464631049475</v>
       </c>
       <c r="W32" t="n">
-        <v>2716.450291085045</v>
+        <v>2562.69597577936</v>
       </c>
       <c r="X32" t="n">
-        <v>2716.450291085045</v>
+        <v>2189.23021751828</v>
       </c>
       <c r="Y32" t="n">
-        <v>2716.450291085045</v>
+        <v>1799.090885542468</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J33" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K33" t="n">
-        <v>109.688810964315</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L33" t="n">
-        <v>580.2716556992013</v>
+        <v>578.9215022353715</v>
       </c>
       <c r="M33" t="n">
-        <v>1181.398861186278</v>
+        <v>1180.048707722448</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.14312848023</v>
+        <v>1812.7929750164</v>
       </c>
       <c r="O33" t="n">
-        <v>2273.018882363463</v>
+        <v>2325.214684712786</v>
       </c>
       <c r="P33" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>384.0515731066135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C34" t="n">
-        <v>215.1153901787066</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D34" t="n">
-        <v>215.1153901787066</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E34" t="n">
         <v>67.20229659631352</v>
@@ -6885,25 +6885,25 @@
         <v>954.5619983528702</v>
       </c>
       <c r="S34" t="n">
-        <v>744.8026024876056</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T34" t="n">
-        <v>518.604818306332</v>
+        <v>873.7684525173604</v>
       </c>
       <c r="U34" t="n">
-        <v>384.0515731066135</v>
+        <v>584.6090175312916</v>
       </c>
       <c r="V34" t="n">
-        <v>384.0515731066135</v>
+        <v>584.6090175312916</v>
       </c>
       <c r="W34" t="n">
-        <v>384.0515731066135</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="X34" t="n">
-        <v>384.0515731066135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y34" t="n">
-        <v>384.0515731066135</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1857.141244244548</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C35" t="n">
-        <v>1602.622235473761</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D35" t="n">
-        <v>1602.622235473761</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E35" t="n">
-        <v>1216.833982875517</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F35" t="n">
-        <v>805.8480780859089</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G35" t="n">
-        <v>388.4636314053091</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H35" t="n">
         <v>67.20229659631352</v>
@@ -6937,13 +6937,13 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J35" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726752</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L35" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M35" t="n">
         <v>1685.237002375317</v>
@@ -6961,28 +6961,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="W35" t="n">
-        <v>3007.346174545562</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X35" t="n">
-        <v>2633.880416284482</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.74108430867</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K36" t="n">
-        <v>371.5093956067678</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L36" t="n">
-        <v>842.0922403416541</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.131046326663</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N36" t="n">
-        <v>2075.875313620614</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O36" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>667.8066606156887</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="C37" t="n">
-        <v>667.8066606156887</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="D37" t="n">
-        <v>667.8066606156887</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="E37" t="n">
-        <v>519.8935670332955</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="F37" t="n">
-        <v>519.8935670332955</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="G37" t="n">
-        <v>351.153648359955</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="H37" t="n">
         <v>195.7158593687022</v>
@@ -7119,28 +7119,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R37" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S37" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T37" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U37" t="n">
-        <v>818.1005610221966</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V37" t="n">
-        <v>818.1005610221966</v>
+        <v>632.0229769035732</v>
       </c>
       <c r="W37" t="n">
-        <v>818.1005610221966</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="X37" t="n">
-        <v>667.8066606156887</v>
+        <v>342.6058068666126</v>
       </c>
       <c r="Y37" t="n">
-        <v>667.8066606156887</v>
+        <v>342.6058068666126</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1246.821991766053</v>
+        <v>1976.891566057417</v>
       </c>
       <c r="C38" t="n">
-        <v>877.8594748256412</v>
+        <v>1607.929049117005</v>
       </c>
       <c r="D38" t="n">
-        <v>519.5937762188908</v>
+        <v>1249.663350510255</v>
       </c>
       <c r="E38" t="n">
-        <v>519.5937762188908</v>
+        <v>863.8750979120105</v>
       </c>
       <c r="F38" t="n">
-        <v>519.5937762188908</v>
+        <v>452.8891931224029</v>
       </c>
       <c r="G38" t="n">
-        <v>519.5937762188908</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H38" t="n">
         <v>198.3324414098951</v>
@@ -7174,13 +7174,13 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726752</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L38" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M38" t="n">
         <v>1685.237002375317</v>
@@ -7201,25 +7201,25 @@
         <v>3360.114829815676</v>
       </c>
       <c r="S38" t="n">
-        <v>3197.139540515746</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T38" t="n">
-        <v>2981.04102810917</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="U38" t="n">
-        <v>2727.325591660959</v>
+        <v>3106.399393367465</v>
       </c>
       <c r="V38" t="n">
-        <v>2396.262704317388</v>
+        <v>3106.399393367465</v>
       </c>
       <c r="W38" t="n">
-        <v>2043.494049047274</v>
+        <v>2753.63073809735</v>
       </c>
       <c r="X38" t="n">
-        <v>2023.561163805986</v>
+        <v>2753.63073809735</v>
       </c>
       <c r="Y38" t="n">
-        <v>1633.421831830175</v>
+        <v>2363.491406121539</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>475.4705993509098</v>
       </c>
       <c r="L39" t="n">
-        <v>578.9215022353715</v>
+        <v>708.6728811115196</v>
       </c>
       <c r="M39" t="n">
-        <v>1180.048707722448</v>
+        <v>1309.800086598596</v>
       </c>
       <c r="N39" t="n">
-        <v>1812.7929750164</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O39" t="n">
-        <v>2325.214684712786</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P39" t="n">
         <v>2459.30289775485</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>236.1384795242204</v>
+        <v>255.7645476385443</v>
       </c>
       <c r="C40" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="D40" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="E40" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="F40" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="G40" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="H40" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I40" t="n">
         <v>67.20229659631352</v>
@@ -7365,19 +7365,19 @@
         <v>954.5619983528702</v>
       </c>
       <c r="U40" t="n">
-        <v>954.5619983528702</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V40" t="n">
-        <v>954.5619983528702</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="W40" t="n">
-        <v>866.5690743960076</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="X40" t="n">
-        <v>638.5795234979903</v>
+        <v>437.413012468784</v>
       </c>
       <c r="Y40" t="n">
-        <v>417.7869443544602</v>
+        <v>437.413012468784</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1264.793073127861</v>
+        <v>1421.815140902195</v>
       </c>
       <c r="C41" t="n">
-        <v>895.8305561874495</v>
+        <v>1052.852623961783</v>
       </c>
       <c r="D41" t="n">
-        <v>537.564857580699</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="E41" t="n">
-        <v>478.1882013859211</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F41" t="n">
-        <v>67.20229659631353</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G41" t="n">
-        <v>67.20229659631353</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H41" t="n">
-        <v>67.20229659631353</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I41" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J41" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L41" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M41" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N41" t="n">
         <v>2260.663407417571</v>
@@ -7429,7 +7429,7 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q41" t="n">
         <v>3360.114829815676</v>
@@ -7441,22 +7441,22 @@
         <v>3178.504162921534</v>
       </c>
       <c r="T41" t="n">
-        <v>2962.405650514959</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U41" t="n">
-        <v>2708.690214066748</v>
+        <v>2924.788726473323</v>
       </c>
       <c r="V41" t="n">
-        <v>2377.627326723177</v>
+        <v>2924.788726473323</v>
       </c>
       <c r="W41" t="n">
-        <v>2024.858671453063</v>
+        <v>2572.020071203208</v>
       </c>
       <c r="X41" t="n">
-        <v>1651.392913191983</v>
+        <v>2198.554312942128</v>
       </c>
       <c r="Y41" t="n">
-        <v>1651.392913191983</v>
+        <v>1808.414980966317</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H42" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I42" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631353</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K42" t="n">
-        <v>371.5093956067678</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L42" t="n">
-        <v>842.0922403416541</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M42" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N42" t="n">
-        <v>1760.597172667076</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O42" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H43" t="n">
-        <v>2601.268690831508</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I43" t="n">
-        <v>2472.75512805912</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J43" t="n">
-        <v>2472.75512805912</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K43" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L43" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M43" t="n">
-        <v>2908.91707564321</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N43" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O43" t="n">
-        <v>3250.441624927402</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P43" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q43" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R43" t="n">
-        <v>3223.653392485003</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S43" t="n">
-        <v>3013.893996619738</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T43" t="n">
-        <v>2787.696212438464</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U43" t="n">
-        <v>2787.696212438464</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V43" t="n">
-        <v>2787.696212438464</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W43" t="n">
-        <v>2787.696212438464</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="X43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y43" t="n">
-        <v>2756.706479822761</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2329.850451020923</v>
+        <v>1501.480099550716</v>
       </c>
       <c r="C44" t="n">
-        <v>1960.887934080511</v>
+        <v>1132.517582610304</v>
       </c>
       <c r="D44" t="n">
-        <v>1602.622235473761</v>
+        <v>774.2518840035534</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.833982875517</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="F44" t="n">
-        <v>805.8480780859089</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="G44" t="n">
-        <v>388.4636314053091</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H44" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J44" t="n">
-        <v>231.1641949821405</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726753</v>
+        <v>597.6453821726759</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M44" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N44" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.663407417572</v>
       </c>
       <c r="O44" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U44" t="n">
-        <v>3360.114829815675</v>
+        <v>3335.516572465414</v>
       </c>
       <c r="V44" t="n">
-        <v>3029.051942472105</v>
+        <v>3004.453685121843</v>
       </c>
       <c r="W44" t="n">
-        <v>3029.051942472105</v>
+        <v>2651.685029851729</v>
       </c>
       <c r="X44" t="n">
-        <v>2655.586184211025</v>
+        <v>2278.219271590649</v>
       </c>
       <c r="Y44" t="n">
-        <v>2655.586184211025</v>
+        <v>1888.079939614837</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J45" t="n">
-        <v>171.1635003404554</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K45" t="n">
-        <v>475.4705993509097</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L45" t="n">
-        <v>578.9215022353713</v>
+        <v>708.6728811115196</v>
       </c>
       <c r="M45" t="n">
-        <v>1180.048707722448</v>
+        <v>1309.800086598596</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.620657808586</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O45" t="n">
         <v>2065.042367504972</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.7876091485671</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C46" t="n">
-        <v>149.7876091485671</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D46" t="n">
-        <v>149.7876091485671</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E46" t="n">
-        <v>149.7876091485671</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K46" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L46" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M46" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N46" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O46" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P46" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q46" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R46" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S46" t="n">
-        <v>954.56199835287</v>
+        <v>900.4633898252298</v>
       </c>
       <c r="T46" t="n">
-        <v>728.3642141715965</v>
+        <v>900.4633898252298</v>
       </c>
       <c r="U46" t="n">
-        <v>439.2047791855277</v>
+        <v>611.3039548391611</v>
       </c>
       <c r="V46" t="n">
-        <v>439.2047791855277</v>
+        <v>356.6194666332742</v>
       </c>
       <c r="W46" t="n">
-        <v>149.7876091485671</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="X46" t="n">
-        <v>149.7876091485671</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="Y46" t="n">
-        <v>149.7876091485671</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781607</v>
       </c>
       <c r="N24" t="n">
-        <v>269.1757941813729</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>412.9820310739158</v>
+        <v>311.4067723781607</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781607</v>
       </c>
       <c r="N30" t="n">
-        <v>321.5533708448949</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>339.7754952230394</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>55.66244822800354</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.6157713236684</v>
+        <v>311.4067723781607</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>131.061998864796</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>55.66244822800354</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781607</v>
       </c>
       <c r="N42" t="n">
-        <v>160.7903132772849</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>131.061998864796</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>216.5420539316205</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>240.2265668987315</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>176.1521933990916</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>72.57258286784712</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>353.5160383726674</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23548,19 +23548,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>58.29504224864084</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>73.21229317867329</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>198.1590309178639</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>194.1370723978104</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9289676594881</v>
+        <v>136.6690991791625</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>52.55328306226784</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>129.5416747021938</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923383</v>
@@ -24180,19 +24180,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9594002052141377</v>
+        <v>275.8168836973752</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>293.0936333131285</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>51.59525527355754</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89780072418552</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I25" t="n">
         <v>127.2284271446648</v>
@@ -24414,7 +24414,7 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S25" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>223.9358063394608</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>231.586882502683</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>361.9739857485051</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>220.2876242184202</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>129.6841701682281</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
         <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
         <v>27.01006717676063</v>
@@ -24648,25 +24648,25 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>91.77214516750064</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>312.2843510506284</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>380.4230095667751</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>127.2284271446648</v>
@@ -24891,7 +24891,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9358063394608</v>
+        <v>99.34259317157719</v>
       </c>
       <c r="U31" t="n">
         <v>286.2678406362081</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>134.7728356183241</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>281.2806491993059</v>
       </c>
       <c r="W32" t="n">
-        <v>39.76533384422368</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,22 +25125,22 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>143.9501959623061</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0601278884868</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>113.299073087928</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
         <v>129.8188433654458</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>161.3455364069306</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>168.3824170659753</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
         <v>207.661801906612</v>
@@ -25368,16 +25368,16 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>219.0918527252321</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>76.91869398659426</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2106022137938</v>
+        <v>161.1994180184111</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>18.44902381826978</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>349.9975442895939</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>107.7986197114842</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>153.8834111013403</v>
       </c>
       <c r="I40" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>27.01006717676063</v>
@@ -25605,19 +25605,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>199.4100036192971</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>328.7947088498188</v>
       </c>
       <c r="E41" t="n">
-        <v>323.1474804394317</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
         <v>27.01006717676063</v>
@@ -25833,25 +25833,25 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>172.1520329466732</v>
       </c>
       <c r="X43" t="n">
-        <v>195.0298200994908</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.25546580527998</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>161.3455364069306</v>
@@ -25921,19 +25921,19 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1782820837292</v>
+        <v>245.2750311252393</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>63.66158859620023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.0525194866071</v>
@@ -26046,7 +26046,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R46" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>207.661801906612</v>
+        <v>154.104179464248</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659451.2820707567</v>
+        <v>659451.2820707564</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659451.2820707564</v>
+        <v>659451.2820707565</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659451.2820707565</v>
+        <v>659451.2820707564</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731201.020712132</v>
+        <v>731201.0207121316</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731201.0207121318</v>
+        <v>731201.0207121319</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731201.0207121318</v>
+        <v>731201.0207121316</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731201.0207121319</v>
+        <v>731201.0207121316</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731201.0207121319</v>
+        <v>731201.0207121316</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731201.0207121319</v>
+        <v>731201.0207121316</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731201.0207121316</v>
+        <v>731201.0207121318</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651768</v>
@@ -26325,7 +26325,7 @@
         <v>361440.7625196971</v>
       </c>
       <c r="F2" t="n">
-        <v>361440.7625196971</v>
+        <v>361440.762519697</v>
       </c>
       <c r="G2" t="n">
         <v>361440.762519697</v>
@@ -26337,25 +26337,25 @@
         <v>401604.5379517686</v>
       </c>
       <c r="J2" t="n">
-        <v>401604.5379517688</v>
+        <v>401604.5379517687</v>
       </c>
       <c r="K2" t="n">
-        <v>401604.5379517688</v>
+        <v>401604.5379517686</v>
       </c>
       <c r="L2" t="n">
+        <v>401604.5379517687</v>
+      </c>
+      <c r="M2" t="n">
         <v>401604.5379517686</v>
-      </c>
-      <c r="M2" t="n">
-        <v>401604.5379517687</v>
       </c>
       <c r="N2" t="n">
         <v>401604.5379517686</v>
       </c>
       <c r="O2" t="n">
-        <v>401604.5379517687</v>
+        <v>401604.5379517686</v>
       </c>
       <c r="P2" t="n">
-        <v>401604.5379517687</v>
+        <v>401604.5379517686</v>
       </c>
     </row>
     <row r="3">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="I4" t="n">
         <v>8909.485408078566</v>
       </c>
       <c r="J4" t="n">
-        <v>8909.485408078568</v>
+        <v>8909.485408078566</v>
       </c>
       <c r="K4" t="n">
         <v>8909.485408078566</v>
@@ -26450,13 +26450,13 @@
         <v>8909.485408078566</v>
       </c>
       <c r="M4" t="n">
-        <v>8909.485408078568</v>
+        <v>8909.485408078566</v>
       </c>
       <c r="N4" t="n">
         <v>8909.485408078566</v>
       </c>
       <c r="O4" t="n">
-        <v>8909.485408078568</v>
+        <v>8909.485408078566</v>
       </c>
       <c r="P4" t="n">
         <v>8909.485408078566</v>
@@ -26508,10 +26508,10 @@
         <v>62418.87211854676</v>
       </c>
       <c r="O5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="P5" t="n">
         <v>62418.87211854677</v>
-      </c>
-      <c r="P5" t="n">
-        <v>62418.87211854675</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286977</v>
+        <v>-307592.899828698</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858466</v>
+        <v>282374.9793858464</v>
       </c>
       <c r="D6" t="n">
         <v>282374.9793858465</v>
       </c>
       <c r="E6" t="n">
-        <v>302838.2664219261</v>
+        <v>296769.852676107</v>
       </c>
       <c r="F6" t="n">
-        <v>302838.2664219261</v>
+        <v>296769.8526761069</v>
       </c>
       <c r="G6" t="n">
-        <v>302838.2664219261</v>
+        <v>296769.8526761068</v>
       </c>
       <c r="H6" t="n">
-        <v>302838.2664219262</v>
+        <v>296769.852676107</v>
       </c>
       <c r="I6" t="n">
-        <v>178803.5948217993</v>
+        <v>174341.7320932629</v>
       </c>
       <c r="J6" t="n">
-        <v>153852.9612325505</v>
+        <v>149391.0985040141</v>
       </c>
       <c r="K6" t="n">
-        <v>330276.1804251435</v>
+        <v>325814.3176966069</v>
       </c>
       <c r="L6" t="n">
-        <v>330276.1804251433</v>
+        <v>325814.317696607</v>
       </c>
       <c r="M6" t="n">
-        <v>330276.1804251434</v>
+        <v>325814.3176966069</v>
       </c>
       <c r="N6" t="n">
-        <v>330276.1804251432</v>
+        <v>325814.317696607</v>
       </c>
       <c r="O6" t="n">
-        <v>330276.1804251433</v>
+        <v>325814.3176966069</v>
       </c>
       <c r="P6" t="n">
-        <v>330276.1804251434</v>
+        <v>325814.3176966069</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>520.4186562086462</v>
       </c>
       <c r="P3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="E4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="E4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545555</v>
@@ -26828,10 +26828,10 @@
         <v>840.028707453919</v>
       </c>
       <c r="O4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="P4" t="n">
         <v>840.0287074539191</v>
-      </c>
-      <c r="P4" t="n">
-        <v>840.0287074539189</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>165.7414346993635</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>344.5710630546279</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>167.1052459970684</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>107.5737904542732</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>14.97888442104272</v>
+        <v>289.7956430646682</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.20342649741275</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>16.4396305244174</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>66.93470108239697</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>110.2567385980923</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>141.2104398502179</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H44" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I44" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J44" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K44" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L44" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M44" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N44" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O44" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P44" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q44" t="n">
         <v>225.9270760227193</v>
@@ -34395,10 +34395,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S44" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T44" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U44" t="n">
         <v>0.1673708241073031</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H45" t="n">
         <v>10.81096114123999</v>
@@ -34447,7 +34447,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J45" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K45" t="n">
         <v>180.7571100531484</v>
@@ -34456,7 +34456,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M45" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N45" t="n">
         <v>291.1349612690237</v>
@@ -34471,16 +34471,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R45" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S45" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T45" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H46" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I46" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J46" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K46" t="n">
         <v>109.0319742024016</v>
@@ -34535,7 +34535,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M46" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N46" t="n">
         <v>143.609954753445</v>
@@ -34547,7 +34547,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R46" t="n">
         <v>42.19656841980267</v>
@@ -34556,10 +34556,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T46" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35740,7 +35740,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245897</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K24" t="n">
         <v>307.380908091368</v>
@@ -36445,16 +36445,16 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M24" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898546</v>
       </c>
       <c r="N24" t="n">
-        <v>428.9690433670633</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O24" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P24" t="n">
-        <v>79.78019120842487</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
         <v>212.9848020488506</v>
@@ -36679,13 +36679,13 @@
         <v>307.380908091368</v>
       </c>
       <c r="L27" t="n">
-        <v>104.4958614994563</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4761647856096</v>
+        <v>452.9009060898546</v>
       </c>
       <c r="N27" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O27" t="n">
         <v>517.5976865620062</v>
@@ -36694,7 +36694,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K30" t="n">
         <v>307.380908091368</v>
       </c>
       <c r="L30" t="n">
-        <v>104.4958614994563</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898546</v>
       </c>
       <c r="N30" t="n">
-        <v>481.3466200305853</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O30" t="n">
         <v>517.5976865620062</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K33" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L33" t="n">
-        <v>475.3362068029155</v>
+        <v>104.4958614994563</v>
       </c>
       <c r="M33" t="n">
         <v>607.1991974616938</v>
@@ -37162,13 +37162,13 @@
         <v>639.135623529244</v>
       </c>
       <c r="O33" t="n">
-        <v>463.510862508316</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
-        <v>398.242959848362</v>
+        <v>135.4426394364284</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K36" t="n">
         <v>307.380908091368</v>
@@ -37393,19 +37393,19 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M36" t="n">
-        <v>607.1099050353622</v>
+        <v>452.9009060898546</v>
       </c>
       <c r="N36" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>79.78019120842487</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>307.380908091368</v>
       </c>
       <c r="L39" t="n">
-        <v>104.4958614994563</v>
+        <v>235.5578603642523</v>
       </c>
       <c r="M39" t="n">
         <v>607.1991974616938</v>
@@ -37636,10 +37636,10 @@
         <v>639.135623529244</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5976865620062</v>
+        <v>123.7353672852766</v>
       </c>
       <c r="P39" t="n">
-        <v>135.4426394364284</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
         <v>212.9848020488506</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K42" t="n">
         <v>307.380908091368</v>
@@ -37867,10 +37867,10 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
-        <v>607.1991974616938</v>
+        <v>452.9009060898546</v>
       </c>
       <c r="N42" t="n">
-        <v>320.5835624629753</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O42" t="n">
         <v>517.5976865620062</v>
@@ -37879,7 +37879,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K44" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L44" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M44" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N44" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O44" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P44" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q44" t="n">
         <v>215.9363768081745</v>
@@ -38098,19 +38098,19 @@
         <v>105.0113169132747</v>
       </c>
       <c r="K45" t="n">
-        <v>307.3809080913679</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L45" t="n">
-        <v>104.4958614994563</v>
+        <v>235.5578603642523</v>
       </c>
       <c r="M45" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
-        <v>376.3353031173109</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O45" t="n">
-        <v>517.5976865620061</v>
+        <v>123.7353672852766</v>
       </c>
       <c r="P45" t="n">
         <v>398.242959848362</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L46" t="n">
         <v>167.1134138445161</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1824522.771366151</v>
+        <v>1850923.496433272</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.663039649</v>
+        <v>625948.6630396494</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156756</v>
+        <v>5996855.681156755</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8795226.347368553</v>
+        <v>8795226.347368555</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>10.11197856605508</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>385.0878386796593</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -837,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>92.13472700759353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>245.1595743446622</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>87.3587088133893</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3445394963776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.59957183215651</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>110.92720347361</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>138.3334617756289</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>193.5789072793774</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>60.26813164812763</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>181.4026671221464</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.220846587375998</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>212.6316806838282</v>
       </c>
       <c r="U17" t="n">
-        <v>53.0651365904254</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>89.04055620987464</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>165.1273863902434</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>240.1894259762752</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>10.70611463921582</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>18.44902381826978</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>72.77369033566569</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>297.6457134438555</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.1158076895349</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>20.55076082114499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>165.9503144376334</v>
+        <v>99.35975356011002</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.8896567391114</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>283.8877843598097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>69.64601902163335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
         <v>251.1782820837292</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>341.3430950920822</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>118.0946051793191</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>124.5932131678836</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>46.47160927082896</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>219.0659686754443</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>79.9856103771547</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2678406362081</v>
+        <v>53.11763757809175</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.2106022137938</v>
+        <v>120.1169689006653</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>18.44902381826978</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>180.8585516514377</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>33.04579059859589</v>
+        <v>25.52383289934342</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>252.0111841953827</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>214.1928563222285</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>59.44820138714368</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>254.3598158159218</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>25.88833277086417</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>199.3075754697076</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>144.6478736358778</v>
       </c>
       <c r="U43" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>114.3709653899178</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>292.052355457921</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>5.903250958489866</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.557622442364</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>104.0558041778724</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1759.555763042629</v>
+        <v>1581.134716985073</v>
       </c>
       <c r="C2" t="n">
-        <v>1759.555763042629</v>
+        <v>1212.172200044661</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>853.9065014379107</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>853.9065014379107</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>442.9205966483032</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4549,19 +4549,19 @@
         <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>1456.618771496444</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>712.564820291449</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>301.5789155018414</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4640,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>610.4709450465318</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>984.6750962183016</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>615.71257927789</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>615.71257927789</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>615.71257927789</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>608.7670785286865</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4840,16 +4840,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.274936282423</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.41262192169</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="C11" t="n">
-        <v>1780.41262192169</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036444</v>
@@ -5071,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V11" t="n">
-        <v>2366.086203674651</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W11" t="n">
-        <v>2366.086203674651</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="X11" t="n">
-        <v>2170.551953897502</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="Y11" t="n">
-        <v>1780.41262192169</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="12">
@@ -5120,10 +5120,10 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L12" t="n">
         <v>670.8219208598713</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1280.556556803302</v>
+        <v>1905.140074719375</v>
       </c>
       <c r="C14" t="n">
-        <v>911.5940398628907</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D14" t="n">
-        <v>911.5940398628907</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E14" t="n">
-        <v>525.8057872646464</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F14" t="n">
-        <v>114.8198824750388</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036444</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V14" t="n">
-        <v>2057.295728843236</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W14" t="n">
-        <v>2057.295728843236</v>
+        <v>2295.279406695187</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.295728843236</v>
+        <v>2295.279406695187</v>
       </c>
       <c r="Y14" t="n">
-        <v>1667.156396867424</v>
+        <v>1905.140074719375</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5460,19 +5460,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>535.9356573576496</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>308.6274700262513</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036444</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1219.679656148628</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>850.7171392082162</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F17" t="n">
         <v>53.94298182036444</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2482.369615580012</v>
       </c>
       <c r="U17" t="n">
-        <v>2369.884586449641</v>
+        <v>2228.607830218103</v>
       </c>
       <c r="V17" t="n">
-        <v>2369.884586449641</v>
+        <v>1897.544942874532</v>
       </c>
       <c r="W17" t="n">
-        <v>2369.884586449641</v>
+        <v>1544.776287604418</v>
       </c>
       <c r="X17" t="n">
-        <v>1996.418828188561</v>
+        <v>1171.310529343338</v>
       </c>
       <c r="Y17" t="n">
-        <v>1606.27949621275</v>
+        <v>781.1711973675267</v>
       </c>
     </row>
     <row r="18">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
         <v>53.94298182036444</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>383.5045402329972</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>383.5045402329972</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1226.657559460833</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C20" t="n">
-        <v>857.6950425204218</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036444</v>
@@ -5785,19 +5785,19 @@
         <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2299.147574074761</v>
       </c>
       <c r="V20" t="n">
-        <v>2212.181128500977</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="W20" t="n">
-        <v>1859.412473230863</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="X20" t="n">
-        <v>1616.796891436645</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="Y20" t="n">
-        <v>1226.657559460833</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="21">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C22" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D22" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
         <v>200.8329293182748</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="U22" t="n">
-        <v>211.6471865296039</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V22" t="n">
-        <v>211.6471865296039</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W22" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X22" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1716.92664462951</v>
+        <v>1180.21876474172</v>
       </c>
       <c r="C23" t="n">
-        <v>1347.964127689098</v>
+        <v>811.2562478013083</v>
       </c>
       <c r="D23" t="n">
-        <v>1347.964127689098</v>
+        <v>452.9905491945577</v>
       </c>
       <c r="E23" t="n">
-        <v>1347.964127689098</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F23" t="n">
-        <v>936.9782228994906</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G23" t="n">
-        <v>519.5937762188908</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H23" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I23" t="n">
         <v>67.20229659631352</v>
@@ -6016,25 +6016,25 @@
         <v>3341.479452221464</v>
       </c>
       <c r="S23" t="n">
-        <v>3341.479452221464</v>
+        <v>3267.97067410463</v>
       </c>
       <c r="T23" t="n">
-        <v>3125.380939814888</v>
+        <v>3267.97067410463</v>
       </c>
       <c r="U23" t="n">
-        <v>3125.380939814888</v>
+        <v>3014.255237656419</v>
       </c>
       <c r="V23" t="n">
-        <v>2794.318052471318</v>
+        <v>2683.192350312848</v>
       </c>
       <c r="W23" t="n">
-        <v>2493.665816669443</v>
+        <v>2330.423695042733</v>
       </c>
       <c r="X23" t="n">
-        <v>2493.665816669443</v>
+        <v>1956.957936781653</v>
       </c>
       <c r="Y23" t="n">
-        <v>2103.526484693632</v>
+        <v>1566.818604805842</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>214.0922440942239</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C25" t="n">
-        <v>214.0922440942239</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D25" t="n">
-        <v>214.0922440942239</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E25" t="n">
-        <v>214.0922440942239</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F25" t="n">
         <v>67.20229659631352</v>
@@ -6174,25 +6174,25 @@
         <v>954.5619983528702</v>
       </c>
       <c r="S25" t="n">
-        <v>744.8026024876056</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T25" t="n">
-        <v>744.8026024876056</v>
+        <v>839.2935057371784</v>
       </c>
       <c r="U25" t="n">
-        <v>455.6431675015368</v>
+        <v>839.2935057371784</v>
       </c>
       <c r="V25" t="n">
-        <v>434.8848232377539</v>
+        <v>584.6090175312916</v>
       </c>
       <c r="W25" t="n">
-        <v>434.8848232377539</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="X25" t="n">
-        <v>434.8848232377539</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.0922440942239</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1591.204669531327</v>
+        <v>1543.503487399911</v>
       </c>
       <c r="C26" t="n">
-        <v>1222.242152590916</v>
+        <v>1543.503487399911</v>
       </c>
       <c r="D26" t="n">
-        <v>863.9764539841653</v>
+        <v>1185.237788793161</v>
       </c>
       <c r="E26" t="n">
-        <v>478.188201385921</v>
+        <v>799.4495361949166</v>
       </c>
       <c r="F26" t="n">
-        <v>67.20229659631352</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="G26" t="n">
-        <v>67.20229659631352</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H26" t="n">
         <v>67.20229659631352</v>
@@ -6256,22 +6256,22 @@
         <v>3341.479452221464</v>
       </c>
       <c r="T26" t="n">
-        <v>3125.380939814888</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U26" t="n">
-        <v>2871.665503366677</v>
+        <v>3087.764015773253</v>
       </c>
       <c r="V26" t="n">
-        <v>2871.665503366677</v>
+        <v>2756.701128429682</v>
       </c>
       <c r="W26" t="n">
-        <v>2518.896848096563</v>
+        <v>2403.932473159568</v>
       </c>
       <c r="X26" t="n">
-        <v>2145.431089835483</v>
+        <v>2030.466714898488</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.804509595449</v>
+        <v>1930.103327464033</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J27" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K27" t="n">
-        <v>475.4705993509098</v>
+        <v>322.715290892789</v>
       </c>
       <c r="L27" t="n">
-        <v>946.0534440857962</v>
+        <v>793.2981356276754</v>
       </c>
       <c r="M27" t="n">
         <v>1394.425341114752</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.20229659631352</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="C28" t="n">
-        <v>67.20229659631352</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="D28" t="n">
-        <v>67.20229659631352</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="E28" t="n">
-        <v>67.20229659631352</v>
+        <v>519.8935670332955</v>
       </c>
       <c r="F28" t="n">
-        <v>67.20229659631352</v>
+        <v>519.8935670332955</v>
       </c>
       <c r="G28" t="n">
-        <v>67.20229659631352</v>
+        <v>351.153648359955</v>
       </c>
       <c r="H28" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I28" t="n">
         <v>67.20229659631352</v>
@@ -6411,25 +6411,25 @@
         <v>954.5619983528702</v>
       </c>
       <c r="S28" t="n">
-        <v>837.5017390204345</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T28" t="n">
-        <v>611.303954839161</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U28" t="n">
-        <v>611.303954839161</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="V28" t="n">
-        <v>356.6194666332741</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="W28" t="n">
-        <v>67.20229659631352</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="X28" t="n">
-        <v>67.20229659631352</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.20229659631352</v>
+        <v>667.8066606156887</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1603.425807796337</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="C29" t="n">
-        <v>1234.463290855925</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D29" t="n">
-        <v>876.1975922491749</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E29" t="n">
-        <v>805.8480780859089</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F29" t="n">
-        <v>805.8480780859089</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G29" t="n">
-        <v>388.4636314053091</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H29" t="n">
         <v>67.20229659631352</v>
@@ -6490,25 +6490,25 @@
         <v>3360.114829815676</v>
       </c>
       <c r="S29" t="n">
-        <v>3360.114829815676</v>
+        <v>3197.139540515746</v>
       </c>
       <c r="T29" t="n">
-        <v>3360.114829815676</v>
+        <v>2981.04102810917</v>
       </c>
       <c r="U29" t="n">
-        <v>3106.399393367465</v>
+        <v>2727.325591660959</v>
       </c>
       <c r="V29" t="n">
-        <v>3106.399393367465</v>
+        <v>2727.325591660959</v>
       </c>
       <c r="W29" t="n">
-        <v>2753.63073809735</v>
+        <v>2374.556936390845</v>
       </c>
       <c r="X29" t="n">
-        <v>2380.164979836271</v>
+        <v>2029.765931247327</v>
       </c>
       <c r="Y29" t="n">
-        <v>1990.025647860459</v>
+        <v>1639.626599271516</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>539.2930978433</v>
+        <v>483.4963634856698</v>
       </c>
       <c r="C31" t="n">
-        <v>539.2930978433</v>
+        <v>483.4963634856698</v>
       </c>
       <c r="D31" t="n">
-        <v>539.2930978433</v>
+        <v>333.379724073334</v>
       </c>
       <c r="E31" t="n">
-        <v>391.3800042609068</v>
+        <v>333.379724073334</v>
       </c>
       <c r="F31" t="n">
-        <v>391.3800042609068</v>
+        <v>186.4897765754237</v>
       </c>
       <c r="G31" t="n">
-        <v>222.6400855875663</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H31" t="n">
         <v>67.20229659631352</v>
@@ -6651,22 +6651,22 @@
         <v>954.5619983528702</v>
       </c>
       <c r="T31" t="n">
-        <v>828.7102678802605</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U31" t="n">
-        <v>828.7102678802605</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="V31" t="n">
-        <v>828.7102678802605</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="W31" t="n">
-        <v>539.2930978433</v>
+        <v>665.1448283159095</v>
       </c>
       <c r="X31" t="n">
-        <v>539.2930978433</v>
+        <v>665.1448283159095</v>
       </c>
       <c r="Y31" t="n">
-        <v>539.2930978433</v>
+        <v>665.1448283159095</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1412.491045478347</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="C32" t="n">
-        <v>1412.491045478347</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D32" t="n">
-        <v>1412.491045478347</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E32" t="n">
-        <v>1026.702792880102</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F32" t="n">
-        <v>615.7168880904949</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I32" t="n">
         <v>67.20229659631352</v>
@@ -6730,22 +6730,22 @@
         <v>3178.504162921534</v>
       </c>
       <c r="T32" t="n">
-        <v>2962.405650514958</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U32" t="n">
-        <v>2962.405650514958</v>
+        <v>2924.788726473323</v>
       </c>
       <c r="V32" t="n">
-        <v>2915.464631049475</v>
+        <v>2593.725839129752</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.69597577936</v>
+        <v>2372.447082891929</v>
       </c>
       <c r="X32" t="n">
-        <v>2189.23021751828</v>
+        <v>1998.981324630849</v>
       </c>
       <c r="Y32" t="n">
-        <v>1799.090885542468</v>
+        <v>1608.841992655038</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J33" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K33" t="n">
-        <v>475.4705993509098</v>
+        <v>322.715290892789</v>
       </c>
       <c r="L33" t="n">
-        <v>578.9215022353715</v>
+        <v>793.2981356276754</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.048707722448</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N33" t="n">
-        <v>1812.7929750164</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O33" t="n">
-        <v>2325.214684712786</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P33" t="n">
         <v>2459.30289775485</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.20229659631352</v>
+        <v>362.005337676617</v>
       </c>
       <c r="C34" t="n">
-        <v>67.20229659631352</v>
+        <v>362.005337676617</v>
       </c>
       <c r="D34" t="n">
-        <v>67.20229659631352</v>
+        <v>362.005337676617</v>
       </c>
       <c r="E34" t="n">
-        <v>67.20229659631352</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F34" t="n">
         <v>67.20229659631352</v>
@@ -6882,28 +6882,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R34" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S34" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="T34" t="n">
-        <v>873.7684525173604</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="U34" t="n">
-        <v>584.6090175312916</v>
+        <v>764.4463816503868</v>
       </c>
       <c r="V34" t="n">
-        <v>584.6090175312916</v>
+        <v>764.4463816503868</v>
       </c>
       <c r="W34" t="n">
-        <v>295.1918474943309</v>
+        <v>764.4463816503868</v>
       </c>
       <c r="X34" t="n">
-        <v>67.20229659631352</v>
+        <v>764.4463816503868</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.20229659631352</v>
+        <v>543.6538025068567</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2008.589116211927</v>
+        <v>1675.530577350406</v>
       </c>
       <c r="C35" t="n">
-        <v>1639.626599271516</v>
+        <v>1306.568060409995</v>
       </c>
       <c r="D35" t="n">
-        <v>1281.360900664765</v>
+        <v>1306.568060409995</v>
       </c>
       <c r="E35" t="n">
-        <v>895.572648066521</v>
+        <v>920.7798078117503</v>
       </c>
       <c r="F35" t="n">
-        <v>484.5867432769134</v>
+        <v>509.7939030221427</v>
       </c>
       <c r="G35" t="n">
-        <v>67.20229659631352</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H35" t="n">
         <v>67.20229659631352</v>
@@ -6964,25 +6964,25 @@
         <v>3341.479452221464</v>
       </c>
       <c r="S35" t="n">
-        <v>3341.479452221464</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T35" t="n">
-        <v>3341.479452221464</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U35" t="n">
-        <v>3341.479452221464</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="V35" t="n">
-        <v>3341.479452221464</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="W35" t="n">
-        <v>3158.794046512941</v>
+        <v>2825.73550765142</v>
       </c>
       <c r="X35" t="n">
-        <v>2785.328288251861</v>
+        <v>2452.26974939034</v>
       </c>
       <c r="Y35" t="n">
-        <v>2395.188956276049</v>
+        <v>2062.130417414528</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>171.1635003404555</v>
       </c>
       <c r="K36" t="n">
-        <v>475.4705993509098</v>
+        <v>213.650014708457</v>
       </c>
       <c r="L36" t="n">
-        <v>946.0534440857962</v>
+        <v>684.2328594433434</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.425341114752</v>
+        <v>1285.36006493042</v>
       </c>
       <c r="N36" t="n">
         <v>1552.620657808586</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>342.6058068666126</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C37" t="n">
-        <v>342.6058068666126</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D37" t="n">
-        <v>342.6058068666126</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E37" t="n">
-        <v>342.6058068666126</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F37" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G37" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H37" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I37" t="n">
         <v>67.20229659631352</v>
@@ -7119,28 +7119,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R37" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S37" t="n">
-        <v>954.5619983528702</v>
+        <v>608.341165156932</v>
       </c>
       <c r="T37" t="n">
-        <v>954.5619983528702</v>
+        <v>382.1433809756585</v>
       </c>
       <c r="U37" t="n">
-        <v>665.4025633668014</v>
+        <v>92.9839459895897</v>
       </c>
       <c r="V37" t="n">
-        <v>632.0229769035732</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="W37" t="n">
-        <v>342.6058068666126</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="X37" t="n">
-        <v>342.6058068666126</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y37" t="n">
-        <v>342.6058068666126</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1976.891566057417</v>
+        <v>1480.891585534436</v>
       </c>
       <c r="C38" t="n">
-        <v>1607.929049117005</v>
+        <v>1111.929068594024</v>
       </c>
       <c r="D38" t="n">
-        <v>1249.663350510255</v>
+        <v>1111.929068594024</v>
       </c>
       <c r="E38" t="n">
-        <v>863.8750979120105</v>
+        <v>1111.929068594024</v>
       </c>
       <c r="F38" t="n">
-        <v>452.8891931224029</v>
+        <v>700.9431638044168</v>
       </c>
       <c r="G38" t="n">
-        <v>198.3324414098951</v>
+        <v>283.558717123817</v>
       </c>
       <c r="H38" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I38" t="n">
         <v>67.20229659631352</v>
@@ -7198,28 +7198,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R38" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S38" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T38" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U38" t="n">
-        <v>3106.399393367465</v>
+        <v>2924.788726473323</v>
       </c>
       <c r="V38" t="n">
-        <v>3106.399393367465</v>
+        <v>2593.725839129752</v>
       </c>
       <c r="W38" t="n">
-        <v>2753.63073809735</v>
+        <v>2240.957183859638</v>
       </c>
       <c r="X38" t="n">
-        <v>2753.63073809735</v>
+        <v>1867.491425598558</v>
       </c>
       <c r="Y38" t="n">
-        <v>2363.491406121539</v>
+        <v>1867.491425598558</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>171.1635003404555</v>
       </c>
       <c r="K39" t="n">
-        <v>475.4705993509098</v>
+        <v>213.650014708457</v>
       </c>
       <c r="L39" t="n">
-        <v>708.6728811115196</v>
+        <v>684.2328594433434</v>
       </c>
       <c r="M39" t="n">
-        <v>1309.800086598596</v>
+        <v>1285.36006493042</v>
       </c>
       <c r="N39" t="n">
-        <v>1942.544353892548</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O39" t="n">
         <v>2065.042367504972</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>255.7645476385443</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C40" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D40" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E40" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F40" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G40" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H40" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I40" t="n">
         <v>67.20229659631352</v>
@@ -7365,19 +7365,19 @@
         <v>954.5619983528702</v>
       </c>
       <c r="U40" t="n">
-        <v>665.4025633668014</v>
+        <v>697.6328914681006</v>
       </c>
       <c r="V40" t="n">
-        <v>665.4025633668014</v>
+        <v>697.6328914681006</v>
       </c>
       <c r="W40" t="n">
-        <v>665.4025633668014</v>
+        <v>697.6328914681006</v>
       </c>
       <c r="X40" t="n">
-        <v>437.413012468784</v>
+        <v>469.6433405700833</v>
       </c>
       <c r="Y40" t="n">
-        <v>437.413012468784</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1421.815140902195</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C41" t="n">
-        <v>1052.852623961783</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D41" t="n">
-        <v>1026.702792880102</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E41" t="n">
-        <v>1026.702792880102</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F41" t="n">
-        <v>615.7168880904949</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G41" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H41" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I41" t="n">
         <v>67.20229659631352</v>
@@ -7435,28 +7435,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R41" t="n">
-        <v>3341.479452221464</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S41" t="n">
-        <v>3178.504162921534</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T41" t="n">
-        <v>3178.504162921534</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="U41" t="n">
-        <v>2924.788726473323</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="V41" t="n">
-        <v>2924.788726473323</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="W41" t="n">
-        <v>2572.020071203208</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.554312942128</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.414980966317</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.20229659631352</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="C43" t="n">
-        <v>67.20229659631352</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="D43" t="n">
-        <v>67.20229659631352</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="E43" t="n">
-        <v>67.20229659631352</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="F43" t="n">
-        <v>67.20229659631352</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G43" t="n">
         <v>67.20229659631352</v>
@@ -7593,28 +7593,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R43" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S43" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="T43" t="n">
-        <v>954.5619983528702</v>
+        <v>671.9915977536332</v>
       </c>
       <c r="U43" t="n">
-        <v>665.4025633668014</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="V43" t="n">
-        <v>410.7180751609145</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="W43" t="n">
-        <v>295.1918474943309</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="X43" t="n">
-        <v>67.20229659631352</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.20229659631352</v>
+        <v>382.8321627675644</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1501.480099550716</v>
+        <v>1838.505866650337</v>
       </c>
       <c r="C44" t="n">
-        <v>1132.517582610304</v>
+        <v>1543.503487399911</v>
       </c>
       <c r="D44" t="n">
-        <v>774.2518840035534</v>
+        <v>1185.237788793161</v>
       </c>
       <c r="E44" t="n">
-        <v>388.4636314053092</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="F44" t="n">
         <v>388.4636314053092</v>
@@ -7681,19 +7681,19 @@
         <v>3341.479452221464</v>
       </c>
       <c r="U44" t="n">
-        <v>3335.516572465414</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V44" t="n">
-        <v>3004.453685121843</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="W44" t="n">
-        <v>2651.685029851729</v>
+        <v>2988.71079695135</v>
       </c>
       <c r="X44" t="n">
-        <v>2278.219271590649</v>
+        <v>2615.24503869027</v>
       </c>
       <c r="Y44" t="n">
-        <v>1888.079939614837</v>
+        <v>2225.105706714458</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>475.4705993509098</v>
       </c>
       <c r="L45" t="n">
-        <v>708.6728811115196</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M45" t="n">
-        <v>1309.800086598596</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N45" t="n">
-        <v>1942.544353892548</v>
+        <v>1705.375966266706</v>
       </c>
       <c r="O45" t="n">
-        <v>2065.042367504972</v>
+        <v>2217.797675963092</v>
       </c>
       <c r="P45" t="n">
         <v>2459.30289775485</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.20229659631353</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="C46" t="n">
-        <v>67.20229659631353</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="D46" t="n">
-        <v>67.20229659631353</v>
+        <v>667.8066606156887</v>
       </c>
       <c r="E46" t="n">
-        <v>67.20229659631353</v>
+        <v>519.8935670332955</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631353</v>
+        <v>519.8935670332955</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631353</v>
+        <v>351.1536483599551</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631353</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I46" t="n">
         <v>67.20229659631353</v>
@@ -7833,25 +7833,25 @@
         <v>954.5619983528702</v>
       </c>
       <c r="S46" t="n">
-        <v>900.4633898252298</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T46" t="n">
-        <v>900.4633898252298</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U46" t="n">
-        <v>611.3039548391611</v>
+        <v>849.4551254459284</v>
       </c>
       <c r="V46" t="n">
-        <v>356.6194666332742</v>
+        <v>849.4551254459284</v>
       </c>
       <c r="W46" t="n">
-        <v>67.20229659631353</v>
+        <v>849.4551254459284</v>
       </c>
       <c r="X46" t="n">
-        <v>67.20229659631353</v>
+        <v>849.4551254459284</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.20229659631353</v>
+        <v>849.4551254459284</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713414</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>215.1782625540142</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>311.4067723781607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713414</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>215.1782625540142</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>55.66244822800354</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>311.4067723781607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>110.1669456407393</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>131.061998864796</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>110.1669456407393</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11381,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>131.061998864796</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>164.1644772680982</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9394299953786</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>176.1521933990916</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>353.5160383726674</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>167.8383015952666</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23700,22 +23700,22 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0610276546017</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>3.816639673829627</v>
       </c>
       <c r="U17" t="n">
-        <v>198.1590309178639</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>136.6690991791625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24025,16 +24025,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>86.09678111804587</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>129.5416747021938</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>88.69405058113833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>275.8168836973752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>161.3455364069306</v>
+        <v>88.57184607126496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>51.59525527355754</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.0525194866071</v>
@@ -24414,25 +24414,25 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>109.8199986499259</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
-        <v>231.586882502683</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654458</v>
@@ -24496,13 +24496,13 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>220.2876242184202</v>
+        <v>286.8781850959435</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>27.01006717676063</v>
@@ -24651,19 +24651,19 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
-        <v>91.77214516750064</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>2.380056276398363</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>312.2843510506284</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
         <v>129.8188433654458</v>
@@ -24730,10 +24730,10 @@
         <v>18.44902381826978</v>
       </c>
       <c r="S29" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>28.38800558638684</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>48.95791430728805</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I31" t="n">
         <v>127.2284271446648</v>
@@ -24891,7 +24891,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>99.34259317157719</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
         <v>286.2678406362081</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>281.2806491993059</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>130.1750000419687</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.0525194866071</v>
@@ -25122,28 +25122,28 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>143.9501959623061</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>233.1502030581163</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>293.0936333131285</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>129.8188433654458</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>213.9375272825098</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>168.3824170659753</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.0525194866071</v>
@@ -25332,7 +25332,7 @@
         <v>153.8834111013403</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
         <v>27.01006717676063</v>
@@ -25359,22 +25359,22 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R37" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>219.0918527252321</v>
+        <v>226.6138104244846</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>161.1994180184111</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>318.0487214609057</v>
+        <v>103.8558651386772</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>213.9375272825098</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>107.7986197114842</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>153.8834111013403</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
         <v>27.01006717676063</v>
@@ -25605,7 +25605,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>31.90802482028622</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>328.7947088498188</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>149.9333932477054</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.8834111013403</v>
@@ -25833,25 +25833,25 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R43" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9358063394608</v>
+        <v>79.28793270358298</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>172.1520329466732</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>73.22053631308654</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.2106022137938</v>
@@ -25921,10 +25921,10 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>245.2750311252393</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>27.01006717676063</v>
@@ -26073,19 +26073,19 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>154.104179464248</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>182.2120364583357</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659451.2820707564</v>
+        <v>659451.2820707565</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731201.0207121318</v>
+        <v>731201.0207121316</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731201.0207121316</v>
+        <v>731201.0207121318</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731201.0207121316</v>
+        <v>731201.0207121318</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731201.0207121316</v>
+        <v>731201.0207121318</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731201.0207121316</v>
+        <v>731201.0207121318</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731201.0207121316</v>
+        <v>731201.0207121318</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731201.0207121318</v>
+        <v>731201.0207121316</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>361440.7625196971</v>
@@ -26331,16 +26331,16 @@
         <v>361440.762519697</v>
       </c>
       <c r="H2" t="n">
-        <v>361440.7625196971</v>
+        <v>361440.7625196969</v>
       </c>
       <c r="I2" t="n">
         <v>401604.5379517686</v>
       </c>
       <c r="J2" t="n">
+        <v>401604.5379517686</v>
+      </c>
+      <c r="K2" t="n">
         <v>401604.5379517687</v>
-      </c>
-      <c r="K2" t="n">
-        <v>401604.5379517686</v>
       </c>
       <c r="L2" t="n">
         <v>401604.5379517687</v>
@@ -26349,13 +26349,13 @@
         <v>401604.5379517686</v>
       </c>
       <c r="N2" t="n">
-        <v>401604.5379517686</v>
+        <v>401604.5379517687</v>
       </c>
       <c r="O2" t="n">
         <v>401604.5379517686</v>
       </c>
       <c r="P2" t="n">
-        <v>401604.5379517686</v>
+        <v>401604.5379517687</v>
       </c>
     </row>
     <row r="3">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361485</v>
@@ -26524,46 +26524,46 @@
         <v>-307592.899828698</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858464</v>
+        <v>282374.9793858465</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858465</v>
+        <v>282374.9793858466</v>
       </c>
       <c r="E6" t="n">
-        <v>296769.852676107</v>
+        <v>302231.4250473442</v>
       </c>
       <c r="F6" t="n">
-        <v>296769.8526761069</v>
+        <v>302231.4250473442</v>
       </c>
       <c r="G6" t="n">
-        <v>296769.8526761068</v>
+        <v>302231.4250473441</v>
       </c>
       <c r="H6" t="n">
-        <v>296769.852676107</v>
+        <v>302231.4250473441</v>
       </c>
       <c r="I6" t="n">
-        <v>174341.7320932629</v>
+        <v>178357.4085489456</v>
       </c>
       <c r="J6" t="n">
-        <v>149391.0985040141</v>
+        <v>153406.7749596967</v>
       </c>
       <c r="K6" t="n">
-        <v>325814.3176966069</v>
+        <v>329829.9941522897</v>
       </c>
       <c r="L6" t="n">
-        <v>325814.317696607</v>
+        <v>329829.9941522898</v>
       </c>
       <c r="M6" t="n">
-        <v>325814.3176966069</v>
+        <v>329829.9941522896</v>
       </c>
       <c r="N6" t="n">
-        <v>325814.317696607</v>
+        <v>329829.9941522898</v>
       </c>
       <c r="O6" t="n">
-        <v>325814.3176966069</v>
+        <v>329829.9941522896</v>
       </c>
       <c r="P6" t="n">
-        <v>325814.3176966069</v>
+        <v>329829.9941522897</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>344.5710630546279</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>28.69633134113565</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>289.7956430646682</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>168.6245956761328</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>199.1642895232017</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>16.4396305244174</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>241.3232009322006</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>141.2104398502179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35731,7 +35731,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>307.380908091368</v>
+        <v>258.0939336328036</v>
       </c>
       <c r="L27" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M27" t="n">
-        <v>452.9009060898546</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N27" t="n">
         <v>159.7932491856904</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>307.380908091368</v>
+        <v>258.0939336328036</v>
       </c>
       <c r="L33" t="n">
-        <v>104.4958614994563</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M33" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O33" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
-        <v>135.4426394364284</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
         <v>212.9848020488506</v>
@@ -37387,16 +37387,16 @@
         <v>105.0113169132747</v>
       </c>
       <c r="K36" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878939</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M36" t="n">
-        <v>452.9009060898546</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.7932491856904</v>
+        <v>269.9601948264297</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
@@ -37624,19 +37624,19 @@
         <v>105.0113169132747</v>
       </c>
       <c r="K39" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878939</v>
       </c>
       <c r="L39" t="n">
-        <v>235.5578603642523</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M39" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N39" t="n">
-        <v>639.135623529244</v>
+        <v>269.9601948264297</v>
       </c>
       <c r="O39" t="n">
-        <v>123.7353672852766</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P39" t="n">
         <v>398.242959848362</v>
@@ -38101,19 +38101,19 @@
         <v>307.380908091368</v>
       </c>
       <c r="L45" t="n">
-        <v>235.5578603642523</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M45" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O45" t="n">
-        <v>123.7353672852766</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P45" t="n">
-        <v>398.242959848362</v>
+        <v>243.944668476523</v>
       </c>
       <c r="Q45" t="n">
         <v>212.9848020488506</v>
